--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/IndustrialSystemsEngineering_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B0E1FB-4834-654D-A952-054749152D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC53A34-B0A4-9348-B752-6EB8EE92783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16640" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="628">
   <si>
     <t>아</t>
   </si>
@@ -1933,6 +1933,14 @@
   </si>
   <si>
     <t>바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2297,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A706"/>
+  <dimension ref="A1:A708"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A686" workbookViewId="0">
-      <selection activeCell="E695" sqref="E695"/>
+      <selection activeCell="B709" sqref="B709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -5835,6 +5843,16 @@
         <v>625</v>
       </c>
     </row>
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
+        <v>627</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/IndustrialSystemsEngineering_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC53A34-B0A4-9348-B752-6EB8EE92783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14832104-8172-0443-ADE8-06F352650ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14420" yWindow="900" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2307,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A708"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A686" workbookViewId="0">
-      <selection activeCell="B709" sqref="B709"/>
+    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
+      <selection activeCell="C702" sqref="C702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/IndustrialSystemsEngineering_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14832104-8172-0443-ADE8-06F352650ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C10BC-025D-2B43-8EC6-8D6E84095A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="900" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="643">
   <si>
     <t>아</t>
   </si>
@@ -1941,6 +1941,66 @@
   </si>
   <si>
     <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갖다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더욱이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되어다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2305,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A708"/>
+  <dimension ref="A1:A723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
-      <selection activeCell="C702" sqref="C702"/>
+    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
+      <selection activeCell="D708" sqref="D708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -5853,6 +5913,81 @@
         <v>627</v>
       </c>
     </row>
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/IndustrialSystemsEngineering_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C10BC-025D-2B43-8EC6-8D6E84095A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7353B-5D65-5D40-BB04-8FA50C113A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2368,7 +2368,7 @@
   <dimension ref="A1:A723"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
-      <selection activeCell="D708" sqref="D708"/>
+      <selection activeCell="C709" sqref="C709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
